--- a/va_facility_data_2025-02-20/Shakopee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Shakopee%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Shakopee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Shakopee%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R15947fa3b00a486ab34627b68f1adf4a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re096a20deb0d4e5685eac676905502c1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2c6763a74e64bffa92abeaf5e0fbef7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7c8c46caeec249aa96d31d8d842f6d79"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd29e8ae6c990482dabefd0e2ccc007f6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ec316f03ae54001828fc20950e66d51"/>
   </x:sheets>
 </x:workbook>
 </file>
